--- a/Documents/1. Diccionario de variables.xlsx
+++ b/Documents/1. Diccionario de variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/2.Descriptive statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC521813-3B97-4CA6-9D4C-1F33820A9658}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89DD881-D1B7-472A-A951-6903CDAF20BE}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Informalidad" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Repartición!$A$1:$I$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Repartición!$B$1:$J$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="342">
   <si>
     <t>ID</t>
   </si>
@@ -1018,9 +1018,6 @@
     <t xml:space="preserve">Vacios son de menores de 12 años </t>
   </si>
   <si>
-    <t xml:space="preserve">No analicé </t>
-  </si>
-  <si>
     <t>Uso cómo proxy de informalidad. Si no cotiza, informal</t>
   </si>
   <si>
@@ -1048,9 +1045,6 @@
     <t>5: Patrón o empleador</t>
   </si>
   <si>
-    <t>70% de los missings son de personas mayores de 65 o menores de 18 años. El resto sí son raros (37%) Los vamos a llenar?</t>
-  </si>
-  <si>
     <t>No sé cómo usarla jeje</t>
   </si>
   <si>
@@ -1070,6 +1064,9 @@
   </si>
   <si>
     <t>Utilizar para aproximar a informalidad. (Jefe de hogar informal? )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70% de los missings son de personas mayores de 65 o menores de 18 años. </t>
   </si>
 </sst>
 </file>
@@ -1623,12 +1620,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A9B9EA-83AB-48A5-A242-07C488F07C6F}">
   <dimension ref="A3:H153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2430,17 +2427,17 @@
         <v>117</v>
       </c>
       <c r="H59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2450,27 +2447,27 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3720,13 +3717,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973FD41-B289-41A1-96C9-1FB75F7B4310}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3734,7 +3732,7 @@
     <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="3"/>
-    <col min="5" max="5" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" style="6" bestFit="1" customWidth="1"/>
@@ -3776,29 +3774,29 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
+        <v>524122</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>317</v>
+        <v>98</v>
+      </c>
+      <c r="H2" s="6">
+        <v>894312.22</v>
       </c>
       <c r="I2" s="7">
-        <v>2</v>
+        <v>280000000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3806,16 +3804,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="e">
-        <v>#N/A</v>
+      <c r="E3" s="7">
+        <v>513037</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3823,28 +3833,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
+        <v>373597</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="6">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3852,28 +3862,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
+        <v>342877</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H5" s="6">
-        <v>2.31</v>
+        <v>447099.93</v>
       </c>
       <c r="I5" s="7">
-        <v>15</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3881,57 +3891,57 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="7">
+        <v>295034</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
       <c r="H6" s="6">
-        <v>2.4300000000000002</v>
+        <v>54.26</v>
       </c>
       <c r="I6" s="7">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>524122</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>298</v>
+        <v>295034</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="G7" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>894312.22</v>
+        <v>85.78</v>
       </c>
       <c r="I7" s="7">
-        <v>280000000</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3939,28 +3949,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>200232</v>
+        <v>295034</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>480314.16</v>
+        <v>2.91</v>
       </c>
       <c r="I8" s="7">
-        <v>600000000</v>
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3968,31 +3981,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>342877</v>
+        <v>295034</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G9" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>447099.93</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4018,7 +4031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4044,7 +4057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4070,7 +4083,7 @@
         <v>131125.57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4096,7 +4109,7 @@
         <v>303816.69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4122,7 +4135,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4136,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4162,7 +4175,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4188,7 +4201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4214,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4240,7 +4253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4271,31 +4284,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>95450</v>
+        <v>22758</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="6">
-        <v>1.07</v>
+        <v>4.24</v>
       </c>
       <c r="I21" s="7">
         <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4303,31 +4313,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="7">
-        <v>125723</v>
+        <v>200232</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="H22" s="6">
-        <v>2</v>
+        <v>480314.16</v>
       </c>
       <c r="I22" s="7">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>323</v>
+        <v>600000000</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4335,28 +4342,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="7">
-        <v>22758</v>
+        <v>125723</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
       </c>
       <c r="H23" s="6">
-        <v>4.24</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
         <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4364,10 +4374,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -4379,16 +4389,16 @@
         <v>301</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="6">
-        <v>6.18</v>
+        <v>1.07</v>
       </c>
       <c r="I24" s="7">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="J24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4396,10 +4406,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -4411,13 +4421,13 @@
         <v>301</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>2.58</v>
+        <v>6.18</v>
       </c>
       <c r="I25" s="7">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
         <v>324</v>
@@ -4428,31 +4438,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="7">
-        <v>295034</v>
+        <v>95450</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="6">
-        <v>54.26</v>
+        <v>2.58</v>
       </c>
       <c r="I26" s="7">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4460,31 +4470,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="7">
-        <v>295034</v>
+        <v>95450</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="6">
-        <v>85.78</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>948</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4492,34 +4502,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="7">
-        <v>295034</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>304</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
       </c>
-      <c r="H28" s="6">
-        <v>2.91</v>
+      <c r="H28" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="I28" s="7">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4548,10 +4555,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4580,10 +4587,10 @@
         <v>9</v>
       </c>
       <c r="J30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4612,10 +4619,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4644,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4676,10 +4683,10 @@
         <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4708,10 +4715,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4740,10 +4747,10 @@
         <v>9</v>
       </c>
       <c r="J35" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4772,10 +4779,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4804,10 +4811,10 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4836,10 +4843,10 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4868,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4900,10 +4907,10 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4932,10 +4939,10 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4964,10 +4971,10 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4996,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5028,10 +5035,10 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5060,10 +5067,10 @@
         <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5092,10 +5099,10 @@
         <v>9</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5124,10 +5131,10 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5156,10 +5163,10 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5188,10 +5195,10 @@
         <v>99</v>
       </c>
       <c r="J49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5220,10 +5227,10 @@
         <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5252,7 +5259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5281,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5310,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5339,7 +5346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5368,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5397,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5426,7 +5433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5455,10 +5462,10 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5487,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5519,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5551,10 +5558,10 @@
         <v>9</v>
       </c>
       <c r="J61" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5583,10 +5590,10 @@
         <v>9</v>
       </c>
       <c r="J62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5615,10 +5622,10 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5647,10 +5654,10 @@
         <v>9</v>
       </c>
       <c r="J64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5679,10 +5686,10 @@
         <v>9</v>
       </c>
       <c r="J65" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5711,10 +5718,10 @@
         <v>9</v>
       </c>
       <c r="J66" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5743,10 +5750,10 @@
         <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5775,10 +5782,10 @@
         <v>9</v>
       </c>
       <c r="J68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>9</v>
       </c>
       <c r="J69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -5815,28 +5822,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
       </c>
       <c r="E70" s="7">
-        <v>95450</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
       </c>
       <c r="G70" s="7">
         <v>1</v>
       </c>
       <c r="H70" s="6">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="I70" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -5844,28 +5851,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71" s="7">
-        <v>295034</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>304</v>
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
       </c>
       <c r="H71" s="6">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="I71" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -5873,28 +5880,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="7">
-        <v>513037</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>309</v>
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
       </c>
       <c r="H72" s="6">
-        <v>1</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I72" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -5902,31 +5909,29 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
       </c>
-      <c r="E73" s="7">
-        <v>373597</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G73" s="7">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6">
-        <v>1</v>
-      </c>
-      <c r="I73" s="7">
-        <v>1</v>
+      <c r="E73" s="7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:J73" xr:uid="{5973FD41-B289-41A1-96C9-1FB75F7B4310}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J73">
+      <sortCondition descending="1" ref="F1:F73"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documents/1. Diccionario de variables.xlsx
+++ b/Documents/1. Diccionario de variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/2.Descriptive statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2824dc675c0c08c7/Documentos/GitHub/Taller-2/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89DD881-D1B7-472A-A951-6903CDAF20BE}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{9CC3FE4A-4975-4173-A19C-6EFF43CDEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41EF134-1C69-47F3-8856-99D54987B7D0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2CE232B5-53A9-44A8-8318-C787A16FD22D}"/>
   </bookViews>
@@ -1621,11 +1621,11 @@
   <dimension ref="A3:H153"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59:H67"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3724,7 +3724,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3770,7 +3770,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>280000000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5925,7 +5925,7 @@
   <autoFilter ref="B1:J73" xr:uid="{5973FD41-B289-41A1-96C9-1FB75F7B4310}">
     <filterColumn colId="2">
       <filters>
-        <filter val="1"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J73">
